--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam12-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam12-Itga9.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.488197333333333</v>
+        <v>7.613107666666667</v>
       </c>
       <c r="H2">
-        <v>7.464592000000001</v>
+        <v>22.839323</v>
       </c>
       <c r="I2">
-        <v>0.02883014447233219</v>
+        <v>0.08102996839946881</v>
       </c>
       <c r="J2">
-        <v>0.02883014447233219</v>
+        <v>0.0810299683994688</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.752878</v>
+        <v>4.717738333333333</v>
       </c>
       <c r="N2">
-        <v>5.258634</v>
+        <v>14.153215</v>
       </c>
       <c r="O2">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="P2">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="Q2">
-        <v>4.361506365258666</v>
+        <v>35.91664987482722</v>
       </c>
       <c r="R2">
-        <v>39.253557287328</v>
+        <v>323.249848873445</v>
       </c>
       <c r="S2">
-        <v>0.003971662584652349</v>
+        <v>0.01622433436186526</v>
       </c>
       <c r="T2">
-        <v>0.00397166258465235</v>
+        <v>0.01622433436186526</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.488197333333333</v>
+        <v>7.613107666666667</v>
       </c>
       <c r="H3">
-        <v>7.464592000000001</v>
+        <v>22.839323</v>
       </c>
       <c r="I3">
-        <v>0.02883014447233219</v>
+        <v>0.08102996839946881</v>
       </c>
       <c r="J3">
-        <v>0.02883014447233219</v>
+        <v>0.0810299683994688</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>3.076282333333333</v>
       </c>
       <c r="N3">
-        <v>9.228846999999998</v>
+        <v>9.228847</v>
       </c>
       <c r="O3">
-        <v>0.2417686736584877</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="P3">
-        <v>0.2417686736584878</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="Q3">
-        <v>7.654397498380444</v>
+        <v>23.42006861673122</v>
       </c>
       <c r="R3">
-        <v>68.889577485424</v>
+        <v>210.780617550581</v>
       </c>
       <c r="S3">
-        <v>0.006970225790458334</v>
+        <v>0.01057935596276162</v>
       </c>
       <c r="T3">
-        <v>0.006970225790458336</v>
+        <v>0.01057935596276161</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.488197333333333</v>
+        <v>7.613107666666667</v>
       </c>
       <c r="H4">
-        <v>7.464592000000001</v>
+        <v>22.839323</v>
       </c>
       <c r="I4">
-        <v>0.02883014447233219</v>
+        <v>0.08102996839946881</v>
       </c>
       <c r="J4">
-        <v>0.02883014447233219</v>
+        <v>0.0810299683994688</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5918243333333334</v>
+        <v>0.6908423333333333</v>
       </c>
       <c r="N4">
-        <v>1.775473</v>
+        <v>2.072527</v>
       </c>
       <c r="O4">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="P4">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="Q4">
-        <v>1.472575728001778</v>
+        <v>5.259457064357889</v>
       </c>
       <c r="R4">
-        <v>13.253181552016</v>
+        <v>47.335113579221</v>
       </c>
       <c r="S4">
-        <v>0.001340952742510785</v>
+        <v>0.002375811504452771</v>
       </c>
       <c r="T4">
-        <v>0.001340952742510786</v>
+        <v>0.002375811504452771</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.488197333333333</v>
+        <v>7.613107666666667</v>
       </c>
       <c r="H5">
-        <v>7.464592000000001</v>
+        <v>22.839323</v>
       </c>
       <c r="I5">
-        <v>0.02883014447233219</v>
+        <v>0.08102996839946881</v>
       </c>
       <c r="J5">
-        <v>0.02883014447233219</v>
+        <v>0.0810299683994688</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.303088666666667</v>
+        <v>15.077163</v>
       </c>
       <c r="N5">
-        <v>21.909266</v>
+        <v>45.231489</v>
       </c>
       <c r="O5">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="P5">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="Q5">
-        <v>18.17152574549689</v>
+        <v>114.784065226883</v>
       </c>
       <c r="R5">
-        <v>163.543731709472</v>
+        <v>1033.056587041947</v>
       </c>
       <c r="S5">
-        <v>0.01654730335471071</v>
+        <v>0.05185046657038916</v>
       </c>
       <c r="T5">
-        <v>0.01654730335471072</v>
+        <v>0.05185046657038916</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>220.729927</v>
       </c>
       <c r="I6">
-        <v>0.8525148708432205</v>
+        <v>0.7831116101658118</v>
       </c>
       <c r="J6">
-        <v>0.8525148708432206</v>
+        <v>0.7831116101658117</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.752878</v>
+        <v>4.717738333333333</v>
       </c>
       <c r="N6">
-        <v>5.258634</v>
+        <v>14.153215</v>
       </c>
       <c r="O6">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="P6">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="Q6">
-        <v>128.9708776599687</v>
+        <v>347.1153459739228</v>
       </c>
       <c r="R6">
-        <v>1160.737898939718</v>
+        <v>3124.038113765305</v>
       </c>
       <c r="S6">
-        <v>0.1174430956680478</v>
+        <v>0.1567995749838167</v>
       </c>
       <c r="T6">
-        <v>0.1174430956680478</v>
+        <v>0.1567995749838167</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>220.729927</v>
       </c>
       <c r="I7">
-        <v>0.8525148708432205</v>
+        <v>0.7831116101658118</v>
       </c>
       <c r="J7">
-        <v>0.8525148708432206</v>
+        <v>0.7831116101658117</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,13 +868,13 @@
         <v>3.076282333333333</v>
       </c>
       <c r="N7">
-        <v>9.228846999999998</v>
+        <v>9.228847</v>
       </c>
       <c r="O7">
-        <v>0.2417686736584877</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="P7">
-        <v>0.2417686736584878</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="Q7">
         <v>226.3425249560188</v>
@@ -883,10 +883,10 @@
         <v>2037.082724604169</v>
       </c>
       <c r="S7">
-        <v>0.2061113895979024</v>
+        <v>0.1022438567626276</v>
       </c>
       <c r="T7">
-        <v>0.2061113895979025</v>
+        <v>0.1022438567626276</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>220.729927</v>
       </c>
       <c r="I8">
-        <v>0.8525148708432205</v>
+        <v>0.7831116101658118</v>
       </c>
       <c r="J8">
-        <v>0.8525148708432206</v>
+        <v>0.7831116101658117</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5918243333333334</v>
+        <v>0.6908423333333333</v>
       </c>
       <c r="N8">
-        <v>1.775473</v>
+        <v>2.072527</v>
       </c>
       <c r="O8">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="P8">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="Q8">
-        <v>43.54444729783012</v>
+        <v>50.82985926839211</v>
       </c>
       <c r="R8">
-        <v>391.9000256804711</v>
+        <v>457.4687334155291</v>
       </c>
       <c r="S8">
-        <v>0.03965232138137697</v>
+        <v>0.0229609564146722</v>
       </c>
       <c r="T8">
-        <v>0.03965232138137697</v>
+        <v>0.0229609564146722</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>220.729927</v>
       </c>
       <c r="I9">
-        <v>0.8525148708432205</v>
+        <v>0.7831116101658118</v>
       </c>
       <c r="J9">
-        <v>0.8525148708432206</v>
+        <v>0.7831116101658117</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.303088666666667</v>
+        <v>15.077163</v>
       </c>
       <c r="N9">
-        <v>21.909266</v>
+        <v>45.231489</v>
       </c>
       <c r="O9">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="P9">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="Q9">
-        <v>537.3367427559535</v>
+        <v>1109.327029452367</v>
       </c>
       <c r="R9">
-        <v>4836.030684803583</v>
+        <v>9983.943265071304</v>
       </c>
       <c r="S9">
-        <v>0.4893080641958933</v>
+        <v>0.5011072220046953</v>
       </c>
       <c r="T9">
-        <v>0.4893080641958933</v>
+        <v>0.5011072220046952</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.19160466666666</v>
+        <v>12.72068066666667</v>
       </c>
       <c r="H10">
-        <v>30.574814</v>
+        <v>38.162042</v>
       </c>
       <c r="I10">
-        <v>0.1180876737582824</v>
+        <v>0.1353923256534006</v>
       </c>
       <c r="J10">
-        <v>0.1180876737582824</v>
+        <v>0.1353923256534005</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.752878</v>
+        <v>4.717738333333333</v>
       </c>
       <c r="N10">
-        <v>5.258634</v>
+        <v>14.153215</v>
       </c>
       <c r="O10">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="P10">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="Q10">
-        <v>17.86463960489733</v>
+        <v>60.01284280722555</v>
       </c>
       <c r="R10">
-        <v>160.781756444076</v>
+        <v>540.1155852650299</v>
       </c>
       <c r="S10">
-        <v>0.01626784756574838</v>
+        <v>0.02710911042939168</v>
       </c>
       <c r="T10">
-        <v>0.01626784756574838</v>
+        <v>0.02710911042939167</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.19160466666666</v>
+        <v>12.72068066666667</v>
       </c>
       <c r="H11">
-        <v>30.574814</v>
+        <v>38.162042</v>
       </c>
       <c r="I11">
-        <v>0.1180876737582824</v>
+        <v>0.1353923256534006</v>
       </c>
       <c r="J11">
-        <v>0.1180876737582824</v>
+        <v>0.1353923256534005</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>3.076282333333333</v>
       </c>
       <c r="N11">
-        <v>9.228846999999998</v>
+        <v>9.228847</v>
       </c>
       <c r="O11">
-        <v>0.2417686736584877</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="P11">
-        <v>0.2417686736584878</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="Q11">
-        <v>31.35225338438421</v>
+        <v>39.13240520284155</v>
       </c>
       <c r="R11">
-        <v>282.1702804594579</v>
+        <v>352.191646825574</v>
       </c>
       <c r="S11">
-        <v>0.02854990025995614</v>
+        <v>0.01767696120344106</v>
       </c>
       <c r="T11">
-        <v>0.02854990025995614</v>
+        <v>0.01767696120344106</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.19160466666666</v>
+        <v>12.72068066666667</v>
       </c>
       <c r="H12">
-        <v>30.574814</v>
+        <v>38.162042</v>
       </c>
       <c r="I12">
-        <v>0.1180876737582824</v>
+        <v>0.1353923256534006</v>
       </c>
       <c r="J12">
-        <v>0.1180876737582824</v>
+        <v>0.1353923256534005</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5918243333333334</v>
+        <v>0.6908423333333333</v>
       </c>
       <c r="N12">
-        <v>1.775473</v>
+        <v>2.072527</v>
       </c>
       <c r="O12">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="P12">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="Q12">
-        <v>6.031639637446888</v>
+        <v>8.787984713348223</v>
       </c>
       <c r="R12">
-        <v>54.28475673702199</v>
+        <v>79.09186242013399</v>
       </c>
       <c r="S12">
-        <v>0.005492514619025011</v>
+        <v>0.003969724427340067</v>
       </c>
       <c r="T12">
-        <v>0.005492514619025011</v>
+        <v>0.003969724427340066</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.19160466666666</v>
+        <v>12.72068066666667</v>
       </c>
       <c r="H13">
-        <v>30.574814</v>
+        <v>38.162042</v>
       </c>
       <c r="I13">
-        <v>0.1180876737582824</v>
+        <v>0.1353923256534006</v>
       </c>
       <c r="J13">
-        <v>0.1180876737582824</v>
+        <v>0.1353923256534005</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.303088666666667</v>
+        <v>15.077163</v>
       </c>
       <c r="N13">
-        <v>21.909266</v>
+        <v>45.231489</v>
       </c>
       <c r="O13">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="P13">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="Q13">
-        <v>74.43019253628043</v>
+        <v>191.791775882282</v>
       </c>
       <c r="R13">
-        <v>669.8717328265238</v>
+        <v>1726.125982940538</v>
       </c>
       <c r="S13">
-        <v>0.06777741131355285</v>
+        <v>0.08663652959322775</v>
       </c>
       <c r="T13">
-        <v>0.06777741131355285</v>
+        <v>0.08663652959322773</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.048962</v>
+        <v>0.04379166666666667</v>
       </c>
       <c r="H14">
-        <v>0.146886</v>
+        <v>0.131375</v>
       </c>
       <c r="I14">
-        <v>0.0005673109261648842</v>
+        <v>0.0004660957813189216</v>
       </c>
       <c r="J14">
-        <v>0.0005673109261648842</v>
+        <v>0.0004660957813189215</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.752878</v>
+        <v>4.717738333333333</v>
       </c>
       <c r="N14">
-        <v>5.258634</v>
+        <v>14.153215</v>
       </c>
       <c r="O14">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="P14">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="Q14">
-        <v>0.08582441263599999</v>
+        <v>0.2065976245138889</v>
       </c>
       <c r="R14">
-        <v>0.7724197137239999</v>
+        <v>1.859378620625</v>
       </c>
       <c r="S14">
-        <v>7.815318377873097E-05</v>
+        <v>9.332465444750917E-05</v>
       </c>
       <c r="T14">
-        <v>7.815318377873097E-05</v>
+        <v>9.332465444750918E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.048962</v>
+        <v>0.04379166666666667</v>
       </c>
       <c r="H15">
-        <v>0.146886</v>
+        <v>0.131375</v>
       </c>
       <c r="I15">
-        <v>0.0005673109261648842</v>
+        <v>0.0004660957813189216</v>
       </c>
       <c r="J15">
-        <v>0.0005673109261648842</v>
+        <v>0.0004660957813189215</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>3.076282333333333</v>
       </c>
       <c r="N15">
-        <v>9.228846999999998</v>
+        <v>9.228847</v>
       </c>
       <c r="O15">
-        <v>0.2417686736584877</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="P15">
-        <v>0.2417686736584878</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="Q15">
-        <v>0.1506209356046666</v>
+        <v>0.1347155305138889</v>
       </c>
       <c r="R15">
-        <v>1.355588420442</v>
+        <v>1.212439774625</v>
       </c>
       <c r="S15">
-        <v>0.0001371580101708523</v>
+        <v>6.085394429632644E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001371580101708523</v>
+        <v>6.085394429632643E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.048962</v>
+        <v>0.04379166666666667</v>
       </c>
       <c r="H16">
-        <v>0.146886</v>
+        <v>0.131375</v>
       </c>
       <c r="I16">
-        <v>0.0005673109261648842</v>
+        <v>0.0004660957813189216</v>
       </c>
       <c r="J16">
-        <v>0.0005673109261648842</v>
+        <v>0.0004660957813189215</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5918243333333334</v>
+        <v>0.6908423333333333</v>
       </c>
       <c r="N16">
-        <v>1.775473</v>
+        <v>2.072527</v>
       </c>
       <c r="O16">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="P16">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="Q16">
-        <v>0.02897690300866667</v>
+        <v>0.03025313718055556</v>
       </c>
       <c r="R16">
-        <v>0.260792127078</v>
+        <v>0.2722782346250001</v>
       </c>
       <c r="S16">
-        <v>2.63868654223083E-05</v>
+        <v>1.366600211387539E-05</v>
       </c>
       <c r="T16">
-        <v>2.63868654223083E-05</v>
+        <v>1.366600211387539E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.048962</v>
+        <v>0.04379166666666667</v>
       </c>
       <c r="H17">
-        <v>0.146886</v>
+        <v>0.131375</v>
       </c>
       <c r="I17">
-        <v>0.0005673109261648842</v>
+        <v>0.0004660957813189216</v>
       </c>
       <c r="J17">
-        <v>0.0005673109261648842</v>
+        <v>0.0004660957813189215</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.303088666666667</v>
+        <v>15.077163</v>
       </c>
       <c r="N17">
-        <v>21.909266</v>
+        <v>45.231489</v>
       </c>
       <c r="O17">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="P17">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="Q17">
-        <v>0.3575738272973333</v>
+        <v>0.6602540963750001</v>
       </c>
       <c r="R17">
-        <v>3.218164445675999</v>
+        <v>5.942286867375</v>
       </c>
       <c r="S17">
-        <v>0.0003256128667929926</v>
+        <v>0.0002982511804612106</v>
       </c>
       <c r="T17">
-        <v>0.0003256128667929926</v>
+        <v>0.0002982511804612106</v>
       </c>
     </row>
   </sheetData>
